--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivi/Dropbox/devM1Max/Passata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99AA7A7-1E9A-9848-BB6D-79DA72EE3EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045DA18B-7EC0-624A-BA0F-32A803AA9994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{CA2FD256-7BC9-A741-AC9D-13258518FF4F}"/>
+    <workbookView xWindow="3400" yWindow="3040" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CA2FD256-7BC9-A741-AC9D-13258518FF4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordering info" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="TomatoRatio">'Ordering info'!$B$4:$F$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
   <si>
     <t>1 qt = 32 oz</t>
   </si>
@@ -161,20 +161,314 @@
     <t>measure garlic</t>
   </si>
   <si>
-    <t>season (salt and basil)</t>
-  </si>
-  <si>
     <t>mix</t>
   </si>
   <si>
     <t>measure mix that gets added to simmer pot</t>
+  </si>
+  <si>
+    <t>PASSATA</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>measure tomatoes in tare container</t>
+  </si>
+  <si>
+    <t>weigh</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>count boxes</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>sub steps</t>
+  </si>
+  <si>
+    <t>you are trying to core the tomato, an remove the stem, avoiding as little loss as possible</t>
+  </si>
+  <si>
+    <t>We are using this data for the batch database and to review how much to order</t>
+  </si>
+  <si>
+    <t>note the weight of tomatoes</t>
+  </si>
+  <si>
+    <t>get tare weight of pot</t>
+  </si>
+  <si>
+    <t>cut tomatoes into pot</t>
+  </si>
+  <si>
+    <t>Stew</t>
+  </si>
+  <si>
+    <t>Turn heat to medium</t>
+  </si>
+  <si>
+    <t>stir more frequently at the beginning, preventing burning on the bottom, until there is a few inches of tomato water at the bootom</t>
+  </si>
+  <si>
+    <t>Mark start time</t>
+  </si>
+  <si>
+    <t>wait until the tomatoes become stewed/mushy, so that it goes through the mill machine easier</t>
+  </si>
+  <si>
+    <t>note the end time</t>
+  </si>
+  <si>
+    <t>strain the tomatoes from the water/juice</t>
+  </si>
+  <si>
+    <t>note the weight of the tomatoes</t>
+  </si>
+  <si>
+    <t>note the weight/volume of the water</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Tare weight of pot</t>
+  </si>
+  <si>
+    <t>weight of tomatoes whole</t>
+  </si>
+  <si>
+    <t>rough start time</t>
+  </si>
+  <si>
+    <t>rough end time</t>
+  </si>
+  <si>
+    <t>start time</t>
+  </si>
+  <si>
+    <t>rough volume of stew tomatoes</t>
+  </si>
+  <si>
+    <t>Weight of cut tomatoes in pot</t>
+  </si>
+  <si>
+    <t>rough volume of cut tomatoes in pot</t>
+  </si>
+  <si>
+    <t>volume of tomato water/juice</t>
+  </si>
+  <si>
+    <t>weight of stew tomatoes (minor water ok)</t>
+  </si>
+  <si>
+    <t>stir until water at bottom</t>
+  </si>
+  <si>
+    <t>turn heat to high, while still stirring occasionally</t>
+  </si>
+  <si>
+    <t>Details / notes</t>
+  </si>
+  <si>
+    <t>mill</t>
+  </si>
+  <si>
+    <t>place pot below mill</t>
+  </si>
+  <si>
+    <t>weigh the empty / partial pot</t>
+  </si>
+  <si>
+    <t>mill tomatoes</t>
+  </si>
+  <si>
+    <t>savce the millings</t>
+  </si>
+  <si>
+    <t>when millings box is full, run it through the mill again</t>
+  </si>
+  <si>
+    <t>count number of stew batches to make a full pot</t>
+  </si>
+  <si>
+    <t>batch the stew information together</t>
+  </si>
+  <si>
+    <t>mark the start time</t>
+  </si>
+  <si>
+    <t>set to low heat</t>
+  </si>
+  <si>
+    <t>note height level</t>
+  </si>
+  <si>
+    <t>weigh the full pot</t>
+  </si>
+  <si>
+    <t>when level is reduced to what you want, start adding salt to taste</t>
+  </si>
+  <si>
+    <t>measure salt you add</t>
+  </si>
+  <si>
+    <t>take notes of what makes the reduced level the consistency you want</t>
+  </si>
+  <si>
+    <t>start weight of batch</t>
+  </si>
+  <si>
+    <t>end weight of batch</t>
+  </si>
+  <si>
+    <t>start height of batch in pot</t>
+  </si>
+  <si>
+    <t>end height of batch in pot</t>
+  </si>
+  <si>
+    <t>amount of salt added</t>
+  </si>
+  <si>
+    <t>onion/garlic/olive oil</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>number/volume of jars</t>
+  </si>
+  <si>
+    <t>make sure rim is clean (it can ferment if seal is not clean)</t>
+  </si>
+  <si>
+    <t>leave 2cm || ~3/4" headspace</t>
+  </si>
+  <si>
+    <t>weight onions</t>
+  </si>
+  <si>
+    <t>skin onions</t>
+  </si>
+  <si>
+    <t>weigh loss of onion</t>
+  </si>
+  <si>
+    <t>dice onion in machine</t>
+  </si>
+  <si>
+    <t>weigh garlic</t>
+  </si>
+  <si>
+    <t>peel garlic</t>
+  </si>
+  <si>
+    <t>dice garlic in machine??</t>
+  </si>
+  <si>
+    <t>weight garlic loss???</t>
+  </si>
+  <si>
+    <t>measure olive oil? Weight/volume</t>
+  </si>
+  <si>
+    <t>weigh onion before</t>
+  </si>
+  <si>
+    <t>weigh onion loss</t>
+  </si>
+  <si>
+    <t>weight of cubed onion</t>
+  </si>
+  <si>
+    <t>volume of cubed onion</t>
+  </si>
+  <si>
+    <t>weight of garlic</t>
+  </si>
+  <si>
+    <t>volume of garlic</t>
+  </si>
+  <si>
+    <t>weight of olive oil</t>
+  </si>
+  <si>
+    <t>volume of olive oil</t>
+  </si>
+  <si>
+    <t>add oill to saucier</t>
+  </si>
+  <si>
+    <t>note rough start time for chopping</t>
+  </si>
+  <si>
+    <t>note rough end time for chopping</t>
+  </si>
+  <si>
+    <t>note start time</t>
+  </si>
+  <si>
+    <t>saute onions</t>
+  </si>
+  <si>
+    <t>note add time of garlic</t>
+  </si>
+  <si>
+    <t>note add time of gonions</t>
+  </si>
+  <si>
+    <t>note end time of everything</t>
+  </si>
+  <si>
+    <t>start time of oil (easy inffered)</t>
+  </si>
+  <si>
+    <t>start time of onion</t>
+  </si>
+  <si>
+    <t>start tie of garlic</t>
+  </si>
+  <si>
+    <t>end time of all</t>
+  </si>
+  <si>
+    <t>weight/volume of everything</t>
+  </si>
+  <si>
+    <t>mix the mix with a batch of sauce and note ratios</t>
+  </si>
+  <si>
+    <t>ratio of GOO to passsata</t>
+  </si>
+  <si>
+    <t>put sauce in jar, leaving headspace</t>
+  </si>
+  <si>
+    <t>add basil</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>wrap in beach towels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +494,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +511,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -232,11 +534,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,6 +555,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344DD8C7-6793-FB4F-B524-1DACDE628D66}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A25" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,27 +1232,27 @@
         <v>1000</v>
       </c>
       <c r="E16">
-        <f>$C16/(VLOOKUP(E13,TomatoRatio,2))*(VLOOKUP(E13,TomatoRatio,4))</f>
+        <f t="shared" ref="E16:J16" si="2">$C16/(VLOOKUP(E13,TomatoRatio,2))*(VLOOKUP(E13,TomatoRatio,4))</f>
         <v>250</v>
       </c>
       <c r="F16">
-        <f>$C16/(VLOOKUP(F13,TomatoRatio,2))*(VLOOKUP(F13,TomatoRatio,4))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="G16">
-        <f>$C16/(VLOOKUP(G13,TomatoRatio,2))*(VLOOKUP(G13,TomatoRatio,4))</f>
+        <f t="shared" si="2"/>
         <v>166.66666666666666</v>
       </c>
       <c r="H16">
-        <f>$C16/(VLOOKUP(H13,TomatoRatio,2))*(VLOOKUP(H13,TomatoRatio,4))</f>
+        <f t="shared" si="2"/>
         <v>142.85714285714286</v>
       </c>
       <c r="I16">
-        <f>$C16/(VLOOKUP(I13,TomatoRatio,2))*(VLOOKUP(I13,TomatoRatio,4))</f>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="J16">
-        <f>$C16/(VLOOKUP(J13,TomatoRatio,2))*(VLOOKUP(J13,TomatoRatio,4))</f>
+        <f t="shared" si="2"/>
         <v>111.11111111111111</v>
       </c>
       <c r="R16" s="5"/>
@@ -943,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="R17" s="5">
-        <f>P17/12</f>
+        <f t="shared" ref="R17:R24" si="3">P17/12</f>
         <v>1</v>
       </c>
     </row>
@@ -952,7 +1271,7 @@
         <v>24</v>
       </c>
       <c r="R18" s="5">
-        <f>P18/12</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -961,7 +1280,7 @@
         <v>48</v>
       </c>
       <c r="R19" s="5">
-        <f>P19/12</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -970,7 +1289,7 @@
         <v>100</v>
       </c>
       <c r="R20" s="5">
-        <f>P20/12</f>
+        <f t="shared" si="3"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -979,7 +1298,7 @@
         <v>200</v>
       </c>
       <c r="R21" s="5">
-        <f>P21/12</f>
+        <f t="shared" si="3"/>
         <v>16.666666666666668</v>
       </c>
     </row>
@@ -988,7 +1307,7 @@
         <v>300</v>
       </c>
       <c r="R22" s="5">
-        <f>P22/12</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
@@ -997,7 +1316,7 @@
         <v>400</v>
       </c>
       <c r="R23" s="5">
-        <f>P23/12</f>
+        <f t="shared" si="3"/>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -1006,7 +1325,7 @@
         <v>500</v>
       </c>
       <c r="R24" s="5">
-        <f>P24/12</f>
+        <f t="shared" si="3"/>
         <v>41.666666666666664</v>
       </c>
     </row>
@@ -1109,142 +1428,456 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E603814E-0575-4B47-A25B-268BFD8FE5F9}">
-  <dimension ref="B2:S28"/>
+  <dimension ref="B1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="20.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="8" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="D13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="F14" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="F15" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="F16" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="D20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="D21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="D22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="D24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="D25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="D26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="D31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D33" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="O16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O28" t="s">
-        <v>42</v>
+      <c r="D36" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="D41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D46" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D47" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D54" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D55" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F56" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D57" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D58" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D59" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D60" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D61" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D62" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D63" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="D65" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D70" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D71" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D72" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
